--- a/ecuacion-util-poi-sample/src/main/resources/template.xlsx
+++ b/ecuacion-util-poi-sample/src/main/resources/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-utils/ecuacion-util-poi-sample/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653AFA7-2344-C541-BC1B-23FBE29B389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF11E559-3CA4-F243-88AB-0286405D125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" xr2:uid="{FC2139E8-D459-C244-822A-CC8D0A42C79C}"/>
+    <workbookView xWindow="9260" yWindow="500" windowWidth="28800" windowHeight="16660" xr2:uid="{FC2139E8-D459-C244-822A-CC8D0A42C79C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Member list</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>nationality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(in template.xlsx)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -495,14 +499,20 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:6">
